--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1397320.197440558</v>
+        <v>1435850.532123829</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5996855.681156754</v>
+        <v>7817379.804902516</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9374939.780164905</v>
+        <v>8534266.983613903</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>63.10802839794265</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>184.5808806410316</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250842</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>94.63926978364066</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>39.06867651626435</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>386.9370489342188</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -946,22 +946,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,7 +992,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.83808333974894</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>73.37668880174277</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>220.963363940806</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>284.5361525213356</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>142.6271181085175</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>28.85590266309211</v>
       </c>
       <c r="E11" t="n">
-        <v>88.50071215503768</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>128.7835007017903</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>88.25810973141446</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>108.0481078432934</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>94.63926978364057</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>150.5540262346246</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>135.2600609046106</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>388.7598212753467</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>205.0114540210804</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>225.4603876057575</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>43.99240337009289</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>28.21611991813202</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>7.749477891375308</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>320.9945197166127</v>
       </c>
     </row>
     <row r="24">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>81.75945942673124</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U25" t="n">
         <v>286.2678406362081</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>53.55762244236397</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>99.60353842268887</v>
+        <v>369.8216549320506</v>
       </c>
       <c r="H26" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>75.37454991311175</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.55762244236397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H29" t="n">
-        <v>244.8281851478186</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>18.44902381826978</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>180.8585516514372</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I30" t="n">
-        <v>50.85619463218985</v>
+        <v>50.85619463218986</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>30.65739549896767</v>
+        <v>30.65739549896769</v>
       </c>
       <c r="S30" t="n">
         <v>150.8909729053132</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>48.38058254581932</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>114.115807689535</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>251.5609080942855</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I32" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>161.3455364069306</v>
       </c>
       <c r="T32" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.1782820837292</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>345.0409032185605</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>92.83500492376423</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>53.55762244236397</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>281.8978468006171</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>161.3455364069306</v>
       </c>
       <c r="T35" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>30.4396862172346</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>53.557622442364</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>14.80733157540329</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>263.2772089660886</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>180.8585516514377</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>52.37844821257627</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>53.557622442364</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S41" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>251.1782820837292</v>
       </c>
       <c r="V41" t="n">
-        <v>141.4667985997312</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>359.910117958791</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>53.55762244236397</v>
+        <v>26.3389809453958</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>284.3633111883913</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,7 +3994,7 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H44" t="n">
-        <v>193.511827596157</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S44" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>95.25391738763409</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>53.55762244236377</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.892406545185</v>
+        <v>609.3508327416162</v>
       </c>
       <c r="C2" t="n">
-        <v>1485.892406545185</v>
+        <v>240.3883158012044</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>240.3883158012044</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>240.3883158012044</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>240.3883158012044</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545185</v>
+        <v>1386.09000478155</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.892406545185</v>
+        <v>995.9506728057379</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4430,31 +4430,31 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,7 +4497,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
         <v>529.6040388502502</v>
@@ -4506,34 +4506,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1336.435086552838</v>
+        <v>1328.817756940316</v>
       </c>
       <c r="C5" t="n">
-        <v>1336.435086552838</v>
+        <v>959.8552399999044</v>
       </c>
       <c r="D5" t="n">
-        <v>1336.435086552838</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E5" t="n">
-        <v>1336.435086552838</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F5" t="n">
-        <v>925.4491817632304</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.174258592771</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y5" t="n">
-        <v>1723.03492661696</v>
+        <v>1328.817756940316</v>
       </c>
     </row>
     <row r="6">
@@ -4628,16 +4628,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>689.9086980046678</v>
+        <v>654.0111167299266</v>
       </c>
       <c r="C7" t="n">
-        <v>520.9725150767609</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>654.0111167299266</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>654.0111167299266</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>654.0111167299266</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>654.0111167299266</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>654.0111167299266</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>654.0111167299266</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>764.7444956504007</v>
+        <v>1507.089911220684</v>
       </c>
       <c r="C8" t="n">
-        <v>764.7444956504007</v>
+        <v>1138.127394280272</v>
       </c>
       <c r="D8" t="n">
-        <v>764.7444956504007</v>
+        <v>1138.127394280272</v>
       </c>
       <c r="E8" t="n">
-        <v>764.7444956504007</v>
+        <v>752.3391416820282</v>
       </c>
       <c r="F8" t="n">
-        <v>757.7989949011973</v>
+        <v>341.3532368924206</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>341.3532368924206</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y8" t="n">
-        <v>764.7444956504007</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>517.0636002298166</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>348.1274173019098</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>198.010777889574</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1330.553052060998</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="C11" t="n">
-        <v>1330.553052060998</v>
+        <v>1778.489019706303</v>
       </c>
       <c r="D11" t="n">
-        <v>972.2873534542475</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5071,22 +5071,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U11" t="n">
-        <v>2443.387305656314</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V11" t="n">
-        <v>2443.387305656314</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W11" t="n">
-        <v>2090.6186503862</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X11" t="n">
-        <v>1717.15289212512</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="Y11" t="n">
-        <v>1717.15289212512</v>
+        <v>2147.451536646714</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5120,43 +5120,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5232,13 +5232,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V13" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X13" t="n">
         <v>53.94298182036445</v>
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1995.909162857192</v>
+        <v>1469.273141255051</v>
       </c>
       <c r="C14" t="n">
-        <v>1626.94664591678</v>
+        <v>1100.31062431464</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.68094731003</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U14" t="n">
-        <v>2478.514423990285</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V14" t="n">
-        <v>2369.374921118272</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W14" t="n">
-        <v>2369.374921118272</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X14" t="n">
-        <v>1995.909162857192</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y14" t="n">
-        <v>1995.909162857192</v>
+        <v>1469.273141255051</v>
       </c>
     </row>
     <row r="15">
@@ -5357,19 +5357,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
         <v>2188.831293537797</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
         <v>53.94298182036445</v>
@@ -5466,22 +5466,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>632.5337622027571</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U16" t="n">
-        <v>343.360151857325</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1019.519018857857</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="C17" t="n">
-        <v>882.8926947117852</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="D17" t="n">
-        <v>882.8926947117852</v>
+        <v>857.6155747668879</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117852</v>
+        <v>857.6155747668879</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>446.6296699772803</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5518,10 +5518,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2169.72394915887</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W17" t="n">
-        <v>2169.72394915887</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X17" t="n">
-        <v>1796.25819089779</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y17" t="n">
-        <v>1406.118858921978</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5606,7 +5606,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
         <v>2188.831293537797</v>
@@ -5615,22 +5615,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5679,40 +5679,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>571.3497027553424</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V19" t="n">
-        <v>571.3497027553424</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
         <v>53.94298182036445</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1637.643464250441</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="C20" t="n">
-        <v>1268.68094731003</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="D20" t="n">
-        <v>1268.68094731003</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5779,25 +5779,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W20" t="n">
-        <v>2414.382636290375</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X20" t="n">
-        <v>2414.382636290375</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y20" t="n">
-        <v>2024.243304314563</v>
+        <v>1391.972039273389</v>
       </c>
     </row>
     <row r="21">
@@ -5840,13 +5840,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
         <v>2525.076107152626</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.37975290126636</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5934,28 +5934,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T22" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U22" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V22" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W22" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X22" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y22" t="n">
-        <v>280.0282177315061</v>
+        <v>551.4811944101821</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1272.362920452766</v>
+        <v>1706.229826295849</v>
       </c>
       <c r="C23" t="n">
-        <v>903.4004035123546</v>
+        <v>1706.229826295849</v>
       </c>
       <c r="D23" t="n">
-        <v>895.572648066521</v>
+        <v>1347.964127689098</v>
       </c>
       <c r="E23" t="n">
-        <v>895.572648066521</v>
+        <v>1347.964127689098</v>
       </c>
       <c r="F23" t="n">
-        <v>484.5867432769134</v>
+        <v>936.9782228994906</v>
       </c>
       <c r="G23" t="n">
-        <v>67.20229659631352</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="H23" t="n">
-        <v>67.20229659631352</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I23" t="n">
         <v>67.20229659631352</v>
@@ -5995,7 +5995,7 @@
         <v>597.6453821726752</v>
       </c>
       <c r="L23" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M23" t="n">
         <v>1685.237002375317</v>
@@ -6004,7 +6004,7 @@
         <v>2260.663407417571</v>
       </c>
       <c r="O23" t="n">
-        <v>2758.834606696547</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P23" t="n">
         <v>3146.337816775583</v>
@@ -6013,28 +6013,28 @@
         <v>3360.114829815676</v>
       </c>
       <c r="R23" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S23" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="T23" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="U23" t="n">
-        <v>3106.399393367465</v>
+        <v>3087.764015773253</v>
       </c>
       <c r="V23" t="n">
-        <v>2775.336506023894</v>
+        <v>2756.701128429682</v>
       </c>
       <c r="W23" t="n">
-        <v>2422.56785075378</v>
+        <v>2403.932473159568</v>
       </c>
       <c r="X23" t="n">
-        <v>2049.1020924927</v>
+        <v>2030.466714898488</v>
       </c>
       <c r="Y23" t="n">
-        <v>1658.962760516888</v>
+        <v>1706.229826295849</v>
       </c>
     </row>
     <row r="24">
@@ -6077,16 +6077,16 @@
         <v>842.0922403416541</v>
       </c>
       <c r="M24" t="n">
-        <v>1443.219445828731</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N24" t="n">
-        <v>1601.414762522564</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O24" t="n">
-        <v>2113.83647221895</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P24" t="n">
-        <v>2508.097002468829</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q24" t="n">
         <v>2670.157851783212</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.20229659631352</v>
+        <v>149.7876091485673</v>
       </c>
       <c r="C25" t="n">
-        <v>67.20229659631352</v>
+        <v>149.7876091485673</v>
       </c>
       <c r="D25" t="n">
-        <v>67.20229659631352</v>
+        <v>149.7876091485673</v>
       </c>
       <c r="E25" t="n">
-        <v>67.20229659631352</v>
+        <v>149.7876091485673</v>
       </c>
       <c r="F25" t="n">
         <v>67.20229659631352</v>
@@ -6177,22 +6177,22 @@
         <v>954.5619983528702</v>
       </c>
       <c r="T25" t="n">
-        <v>954.5619983528702</v>
+        <v>728.3642141715967</v>
       </c>
       <c r="U25" t="n">
-        <v>665.4025633668014</v>
+        <v>439.2047791855279</v>
       </c>
       <c r="V25" t="n">
-        <v>410.7180751609145</v>
+        <v>439.2047791855279</v>
       </c>
       <c r="W25" t="n">
-        <v>121.3009051239539</v>
+        <v>149.7876091485673</v>
       </c>
       <c r="X25" t="n">
-        <v>67.20229659631352</v>
+        <v>149.7876091485673</v>
       </c>
       <c r="Y25" t="n">
-        <v>67.20229659631352</v>
+        <v>149.7876091485673</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1644.113122170304</v>
+        <v>1606.496198128669</v>
       </c>
       <c r="C26" t="n">
-        <v>1644.113122170304</v>
+        <v>1237.533681188257</v>
       </c>
       <c r="D26" t="n">
-        <v>1285.847423563554</v>
+        <v>1237.533681188257</v>
       </c>
       <c r="E26" t="n">
-        <v>900.0591709653095</v>
+        <v>851.7454285900126</v>
       </c>
       <c r="F26" t="n">
-        <v>489.0732661757019</v>
+        <v>440.759523800405</v>
       </c>
       <c r="G26" t="n">
-        <v>388.4636314053091</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H26" t="n">
         <v>67.20229659631352</v>
@@ -6226,10 +6226,10 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J26" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821401</v>
       </c>
       <c r="K26" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726749</v>
       </c>
       <c r="L26" t="n">
         <v>1104.574328908085</v>
@@ -6256,22 +6256,22 @@
         <v>3341.479452221464</v>
       </c>
       <c r="T26" t="n">
-        <v>3125.380939814888</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="U26" t="n">
-        <v>3125.380939814888</v>
+        <v>3087.764015773253</v>
       </c>
       <c r="V26" t="n">
-        <v>2794.318052471318</v>
+        <v>2756.701128429682</v>
       </c>
       <c r="W26" t="n">
-        <v>2794.318052471318</v>
+        <v>2756.701128429682</v>
       </c>
       <c r="X26" t="n">
-        <v>2420.852294210238</v>
+        <v>2383.235370168602</v>
       </c>
       <c r="Y26" t="n">
-        <v>2030.712962234426</v>
+        <v>1993.09603819279</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J27" t="n">
-        <v>171.1635003404555</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K27" t="n">
-        <v>475.4705993509098</v>
+        <v>109.688810964315</v>
       </c>
       <c r="L27" t="n">
-        <v>946.0534440857962</v>
+        <v>580.2716556992013</v>
       </c>
       <c r="M27" t="n">
-        <v>1394.425341114752</v>
+        <v>1181.398861186278</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.620657808586</v>
+        <v>1814.14312848023</v>
       </c>
       <c r="O27" t="n">
-        <v>2065.042367504972</v>
+        <v>2326.564838176616</v>
       </c>
       <c r="P27" t="n">
-        <v>2459.30289775485</v>
+        <v>2667.279412613341</v>
       </c>
       <c r="Q27" t="n">
         <v>2670.157851783212</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>67.20229659631352</v>
+        <v>636.4520961919569</v>
       </c>
       <c r="C28" t="n">
-        <v>67.20229659631352</v>
+        <v>467.51591326405</v>
       </c>
       <c r="D28" t="n">
-        <v>67.20229659631352</v>
+        <v>467.51591326405</v>
       </c>
       <c r="E28" t="n">
-        <v>67.20229659631352</v>
+        <v>467.51591326405</v>
       </c>
       <c r="F28" t="n">
-        <v>67.20229659631352</v>
+        <v>391.3800042609068</v>
       </c>
       <c r="G28" t="n">
-        <v>67.20229659631352</v>
+        <v>222.6400855875663</v>
       </c>
       <c r="H28" t="n">
         <v>67.20229659631352</v>
@@ -6408,28 +6408,28 @@
         <v>954.5619983528702</v>
       </c>
       <c r="R28" t="n">
-        <v>954.5619983528702</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="S28" t="n">
-        <v>954.5619983528702</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="T28" t="n">
-        <v>954.5619983528702</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="U28" t="n">
-        <v>665.4025633668014</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="V28" t="n">
-        <v>410.7180751609145</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="W28" t="n">
-        <v>121.3009051239539</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="X28" t="n">
-        <v>121.3009051239539</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="Y28" t="n">
-        <v>67.20229659631352</v>
+        <v>818.1005610221966</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1838.505866650336</v>
+        <v>2008.589116211927</v>
       </c>
       <c r="C29" t="n">
-        <v>1469.543349709925</v>
+        <v>1639.626599271516</v>
       </c>
       <c r="D29" t="n">
-        <v>1111.277651103174</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E29" t="n">
-        <v>725.4893985049298</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F29" t="n">
-        <v>314.5034937153222</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G29" t="n">
-        <v>314.5034937153222</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H29" t="n">
         <v>67.20229659631352</v>
@@ -6463,13 +6463,13 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J29" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K29" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726753</v>
       </c>
       <c r="L29" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M29" t="n">
         <v>1685.237002375317</v>
@@ -6478,37 +6478,37 @@
         <v>2260.663407417571</v>
       </c>
       <c r="O29" t="n">
-        <v>2758.834606696548</v>
+        <v>2758.834606696547</v>
       </c>
       <c r="P29" t="n">
         <v>3146.337816775583</v>
       </c>
       <c r="Q29" t="n">
-        <v>3360.114829815676</v>
+        <v>3360.114829815675</v>
       </c>
       <c r="R29" t="n">
-        <v>3341.479452221464</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="S29" t="n">
-        <v>3341.479452221464</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="T29" t="n">
-        <v>3341.479452221464</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="U29" t="n">
-        <v>3341.479452221464</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="V29" t="n">
-        <v>3341.479452221464</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="W29" t="n">
-        <v>2988.710796951349</v>
+        <v>3158.794046512941</v>
       </c>
       <c r="X29" t="n">
-        <v>2615.24503869027</v>
+        <v>2785.328288251861</v>
       </c>
       <c r="Y29" t="n">
-        <v>2225.105706714458</v>
+        <v>2395.188956276049</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G30" t="n">
-        <v>221.0211629876734</v>
+        <v>221.0211629876735</v>
       </c>
       <c r="H30" t="n">
         <v>118.5721901641821</v>
@@ -6542,22 +6542,22 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J30" t="n">
-        <v>171.1635003404555</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K30" t="n">
-        <v>475.4705993509098</v>
+        <v>371.5093956067677</v>
       </c>
       <c r="L30" t="n">
-        <v>946.0534440857962</v>
+        <v>842.092240341654</v>
       </c>
       <c r="M30" t="n">
-        <v>1394.425341114752</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N30" t="n">
-        <v>1552.620657808586</v>
+        <v>1601.414762522564</v>
       </c>
       <c r="O30" t="n">
-        <v>2065.042367504972</v>
+        <v>2113.83647221895</v>
       </c>
       <c r="P30" t="n">
         <v>2459.30289775485</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>67.20229659631352</v>
+        <v>262.9615193930313</v>
       </c>
       <c r="C31" t="n">
-        <v>67.20229659631352</v>
+        <v>262.9615193930313</v>
       </c>
       <c r="D31" t="n">
-        <v>67.20229659631352</v>
+        <v>262.9615193930313</v>
       </c>
       <c r="E31" t="n">
-        <v>67.20229659631352</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="F31" t="n">
         <v>67.20229659631352</v>
@@ -6624,49 +6624,49 @@
         <v>67.20229659631352</v>
       </c>
       <c r="K31" t="n">
-        <v>153.0971541490671</v>
+        <v>153.097154149067</v>
       </c>
       <c r="L31" t="n">
-        <v>318.5394338551381</v>
+        <v>318.539433855138</v>
       </c>
       <c r="M31" t="n">
-        <v>503.3642441804034</v>
+        <v>503.3642441804033</v>
       </c>
       <c r="N31" t="n">
-        <v>689.2289500417503</v>
+        <v>689.2289500417501</v>
       </c>
       <c r="O31" t="n">
-        <v>844.8887934645957</v>
+        <v>844.8887934645954</v>
       </c>
       <c r="P31" t="n">
-        <v>954.5619983528702</v>
+        <v>954.56199835287</v>
       </c>
       <c r="Q31" t="n">
-        <v>954.5619983528702</v>
+        <v>954.56199835287</v>
       </c>
       <c r="R31" t="n">
-        <v>954.5619983528702</v>
+        <v>954.56199835287</v>
       </c>
       <c r="S31" t="n">
-        <v>954.5619983528702</v>
+        <v>954.56199835287</v>
       </c>
       <c r="T31" t="n">
-        <v>954.5619983528702</v>
+        <v>954.56199835287</v>
       </c>
       <c r="U31" t="n">
-        <v>954.5619983528702</v>
+        <v>665.4025633668011</v>
       </c>
       <c r="V31" t="n">
-        <v>699.8775101469834</v>
+        <v>665.4025633668011</v>
       </c>
       <c r="W31" t="n">
-        <v>410.4603401100227</v>
+        <v>665.4025633668011</v>
       </c>
       <c r="X31" t="n">
-        <v>182.4707892120054</v>
+        <v>665.4025633668011</v>
       </c>
       <c r="Y31" t="n">
-        <v>67.20229659631352</v>
+        <v>444.609984223271</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1770.756744085097</v>
+        <v>1115.691846952471</v>
       </c>
       <c r="C32" t="n">
-        <v>1770.756744085097</v>
+        <v>746.7293300120596</v>
       </c>
       <c r="D32" t="n">
-        <v>1412.491045478347</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="E32" t="n">
-        <v>1026.702792880102</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="F32" t="n">
-        <v>615.7168880904949</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="G32" t="n">
-        <v>198.3324414098951</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="H32" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I32" t="n">
         <v>67.20229659631352</v>
@@ -6730,22 +6730,22 @@
         <v>3178.504162921534</v>
       </c>
       <c r="T32" t="n">
-        <v>2962.405650514958</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="U32" t="n">
-        <v>2708.690214066747</v>
+        <v>2924.788726473323</v>
       </c>
       <c r="V32" t="n">
-        <v>2377.627326723176</v>
+        <v>2593.725839129752</v>
       </c>
       <c r="W32" t="n">
-        <v>2024.858671453062</v>
+        <v>2240.957183859638</v>
       </c>
       <c r="X32" t="n">
-        <v>2024.858671453062</v>
+        <v>1892.431018992405</v>
       </c>
       <c r="Y32" t="n">
-        <v>2024.858671453062</v>
+        <v>1502.291687016593</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>67.20229659631352</v>
       </c>
       <c r="K33" t="n">
-        <v>109.688810964315</v>
+        <v>371.5093956067678</v>
       </c>
       <c r="L33" t="n">
-        <v>580.2716556992013</v>
+        <v>842.0922403416541</v>
       </c>
       <c r="M33" t="n">
-        <v>1181.398861186278</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.14312848023</v>
+        <v>1760.597172667076</v>
       </c>
       <c r="O33" t="n">
-        <v>2326.564838176616</v>
+        <v>2273.018882363463</v>
       </c>
       <c r="P33" t="n">
         <v>2667.279412613341</v>
@@ -6882,28 +6882,28 @@
         <v>954.5619983528702</v>
       </c>
       <c r="R34" t="n">
-        <v>818.1005610221966</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S34" t="n">
-        <v>818.1005610221966</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="T34" t="n">
-        <v>818.1005610221966</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="U34" t="n">
-        <v>724.3278287759701</v>
+        <v>665.4025633668014</v>
       </c>
       <c r="V34" t="n">
-        <v>469.6433405700833</v>
+        <v>410.7180751609145</v>
       </c>
       <c r="W34" t="n">
-        <v>469.6433405700833</v>
+        <v>121.3009051239539</v>
       </c>
       <c r="X34" t="n">
-        <v>469.6433405700833</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="Y34" t="n">
-        <v>248.8507614265532</v>
+        <v>67.20229659631352</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1781.453562418758</v>
+        <v>1697.23634527695</v>
       </c>
       <c r="C35" t="n">
         <v>1412.491045478347</v>
@@ -6949,10 +6949,10 @@
         <v>1685.237002375317</v>
       </c>
       <c r="N35" t="n">
-        <v>2260.663407417571</v>
+        <v>2260.66340741757</v>
       </c>
       <c r="O35" t="n">
-        <v>2758.834606696548</v>
+        <v>2758.834606696547</v>
       </c>
       <c r="P35" t="n">
         <v>3146.337816775583</v>
@@ -6967,22 +6967,22 @@
         <v>3178.504162921534</v>
       </c>
       <c r="T35" t="n">
-        <v>2962.405650514958</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="U35" t="n">
-        <v>2931.658492719772</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="V35" t="n">
-        <v>2931.658492719772</v>
+        <v>2847.441275577963</v>
       </c>
       <c r="W35" t="n">
-        <v>2931.658492719772</v>
+        <v>2847.441275577963</v>
       </c>
       <c r="X35" t="n">
-        <v>2558.192734458692</v>
+        <v>2473.975517316883</v>
       </c>
       <c r="Y35" t="n">
-        <v>2168.05340248288</v>
+        <v>2083.836185341072</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>67.20229659631352</v>
       </c>
       <c r="K36" t="n">
-        <v>109.688810964315</v>
+        <v>371.5093956067678</v>
       </c>
       <c r="L36" t="n">
-        <v>580.2716556992013</v>
+        <v>842.0922403416541</v>
       </c>
       <c r="M36" t="n">
-        <v>1181.398861186278</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.14312848023</v>
+        <v>1601.414762522564</v>
       </c>
       <c r="O36" t="n">
-        <v>2326.564838176616</v>
+        <v>2113.83647221895</v>
       </c>
       <c r="P36" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q36" t="n">
         <v>2670.157851783212</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.20229659631352</v>
+        <v>236.1384795242204</v>
       </c>
       <c r="C37" t="n">
         <v>67.20229659631352</v>
@@ -7125,22 +7125,22 @@
         <v>954.5619983528702</v>
       </c>
       <c r="T37" t="n">
-        <v>900.4633898252298</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="U37" t="n">
-        <v>611.303954839161</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="V37" t="n">
-        <v>356.6194666332741</v>
+        <v>699.8775101469834</v>
       </c>
       <c r="W37" t="n">
-        <v>67.20229659631352</v>
+        <v>684.9206095657679</v>
       </c>
       <c r="X37" t="n">
-        <v>67.20229659631352</v>
+        <v>456.9310586677506</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.20229659631352</v>
+        <v>236.1384795242204</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1857.141244244548</v>
+        <v>2008.589116211927</v>
       </c>
       <c r="C38" t="n">
-        <v>1488.178727304137</v>
+        <v>1639.626599271516</v>
       </c>
       <c r="D38" t="n">
-        <v>1129.913028697386</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E38" t="n">
-        <v>744.1247760991419</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F38" t="n">
-        <v>333.1388713095343</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G38" t="n">
         <v>67.20229659631352</v>
@@ -7198,28 +7198,28 @@
         <v>3360.114829815676</v>
       </c>
       <c r="R38" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S38" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="T38" t="n">
-        <v>3360.114829815676</v>
+        <v>3158.794046512941</v>
       </c>
       <c r="U38" t="n">
-        <v>3360.114829815676</v>
+        <v>3158.794046512941</v>
       </c>
       <c r="V38" t="n">
-        <v>3360.114829815676</v>
+        <v>3158.794046512941</v>
       </c>
       <c r="W38" t="n">
-        <v>3007.346174545562</v>
+        <v>3158.794046512941</v>
       </c>
       <c r="X38" t="n">
-        <v>2633.880416284482</v>
+        <v>2785.328288251861</v>
       </c>
       <c r="Y38" t="n">
-        <v>2243.74108430867</v>
+        <v>2395.188956276049</v>
       </c>
     </row>
     <row r="39">
@@ -7253,13 +7253,13 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J39" t="n">
-        <v>171.1635003404555</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K39" t="n">
-        <v>475.4705993509098</v>
+        <v>371.5093956067678</v>
       </c>
       <c r="L39" t="n">
-        <v>946.0534440857962</v>
+        <v>842.0922403416541</v>
       </c>
       <c r="M39" t="n">
         <v>1394.425341114752</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>67.20229659631352</v>
+        <v>733.7694192093401</v>
       </c>
       <c r="C40" t="n">
-        <v>67.20229659631352</v>
+        <v>680.8618957622933</v>
       </c>
       <c r="D40" t="n">
-        <v>67.20229659631352</v>
+        <v>530.7452563499576</v>
       </c>
       <c r="E40" t="n">
-        <v>67.20229659631352</v>
+        <v>382.8321627675644</v>
       </c>
       <c r="F40" t="n">
-        <v>67.20229659631352</v>
+        <v>235.942215269654</v>
       </c>
       <c r="G40" t="n">
         <v>67.20229659631352</v>
@@ -7362,22 +7362,22 @@
         <v>954.5619983528702</v>
       </c>
       <c r="T40" t="n">
-        <v>900.4633898252298</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="U40" t="n">
-        <v>611.303954839161</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="V40" t="n">
-        <v>356.6194666332741</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="W40" t="n">
-        <v>67.20229659631352</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="X40" t="n">
-        <v>67.20229659631352</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.20229659631352</v>
+        <v>733.7694192093401</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1650.323417605177</v>
+        <v>1263.647727423885</v>
       </c>
       <c r="C41" t="n">
-        <v>1281.360900664765</v>
+        <v>1263.647727423885</v>
       </c>
       <c r="D41" t="n">
-        <v>1281.360900664765</v>
+        <v>905.3820288171351</v>
       </c>
       <c r="E41" t="n">
-        <v>895.572648066521</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="F41" t="n">
-        <v>484.5867432769134</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="G41" t="n">
-        <v>67.20229659631352</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="H41" t="n">
-        <v>67.20229659631352</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I41" t="n">
         <v>67.20229659631352</v>
@@ -7435,28 +7435,28 @@
         <v>3360.114829815676</v>
       </c>
       <c r="R41" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S41" t="n">
-        <v>3197.139540515746</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="T41" t="n">
-        <v>3197.139540515746</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="U41" t="n">
-        <v>2943.424104067535</v>
+        <v>3087.764015773253</v>
       </c>
       <c r="V41" t="n">
-        <v>2800.52834790619</v>
+        <v>2756.701128429682</v>
       </c>
       <c r="W41" t="n">
-        <v>2800.52834790619</v>
+        <v>2403.932473159568</v>
       </c>
       <c r="X41" t="n">
-        <v>2427.06258964511</v>
+        <v>2040.386899463819</v>
       </c>
       <c r="Y41" t="n">
-        <v>2036.923257669299</v>
+        <v>1650.247567488007</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>67.20229659631352</v>
       </c>
       <c r="K42" t="n">
-        <v>109.688810964315</v>
+        <v>371.5093956067678</v>
       </c>
       <c r="L42" t="n">
-        <v>580.2716556992013</v>
+        <v>842.0922403416541</v>
       </c>
       <c r="M42" t="n">
-        <v>1181.398861186278</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.14312848023</v>
+        <v>1601.414762522564</v>
       </c>
       <c r="O42" t="n">
-        <v>2326.564838176616</v>
+        <v>2113.83647221895</v>
       </c>
       <c r="P42" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q42" t="n">
         <v>2670.157851783212</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.20229659631352</v>
+        <v>383.8553088520472</v>
       </c>
       <c r="C43" t="n">
-        <v>67.20229659631352</v>
+        <v>383.8553088520472</v>
       </c>
       <c r="D43" t="n">
-        <v>67.20229659631352</v>
+        <v>383.8553088520472</v>
       </c>
       <c r="E43" t="n">
-        <v>67.20229659631352</v>
+        <v>235.942215269654</v>
       </c>
       <c r="F43" t="n">
-        <v>67.20229659631352</v>
+        <v>235.942215269654</v>
       </c>
       <c r="G43" t="n">
         <v>67.20229659631352</v>
@@ -7602,19 +7602,19 @@
         <v>954.5619983528702</v>
       </c>
       <c r="U43" t="n">
-        <v>665.4025633668014</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="V43" t="n">
-        <v>410.7180751609145</v>
+        <v>699.8775101469834</v>
       </c>
       <c r="W43" t="n">
-        <v>121.3009051239539</v>
+        <v>410.4603401100227</v>
       </c>
       <c r="X43" t="n">
-        <v>67.20229659631352</v>
+        <v>383.8553088520472</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.20229659631352</v>
+        <v>383.8553088520472</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2204.055608733298</v>
+        <v>1937.559085472239</v>
       </c>
       <c r="C44" t="n">
-        <v>1835.093091792886</v>
+        <v>1568.596568531827</v>
       </c>
       <c r="D44" t="n">
-        <v>1476.827393186136</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E44" t="n">
-        <v>1091.039140587892</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F44" t="n">
-        <v>680.053235798284</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G44" t="n">
-        <v>262.6687891176842</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H44" t="n">
         <v>67.20229659631352</v>
@@ -7654,7 +7654,7 @@
         <v>597.6453821726751</v>
       </c>
       <c r="L44" t="n">
-        <v>1104.574328908086</v>
+        <v>1104.574328908085</v>
       </c>
       <c r="M44" t="n">
         <v>1685.237002375317</v>
@@ -7672,28 +7672,28 @@
         <v>3360.114829815675</v>
       </c>
       <c r="R44" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="S44" t="n">
-        <v>3197.139540515745</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="T44" t="n">
-        <v>3197.139540515745</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="U44" t="n">
-        <v>2943.424104067534</v>
+        <v>3087.764015773252</v>
       </c>
       <c r="V44" t="n">
-        <v>2943.424104067534</v>
+        <v>3087.764015773252</v>
       </c>
       <c r="W44" t="n">
-        <v>2590.65544879742</v>
+        <v>3087.764015773252</v>
       </c>
       <c r="X44" t="n">
-        <v>2590.65544879742</v>
+        <v>2714.298257512172</v>
       </c>
       <c r="Y44" t="n">
-        <v>2590.65544879742</v>
+        <v>2324.158925536361</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J45" t="n">
-        <v>171.1635003404554</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K45" t="n">
-        <v>475.4705993509097</v>
+        <v>371.5093956067677</v>
       </c>
       <c r="L45" t="n">
-        <v>946.0534440857959</v>
+        <v>842.092240341654</v>
       </c>
       <c r="M45" t="n">
-        <v>1547.180649572873</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N45" t="n">
-        <v>1705.375966266706</v>
+        <v>1601.414762522564</v>
       </c>
       <c r="O45" t="n">
-        <v>2217.797675963092</v>
+        <v>2113.83647221895</v>
       </c>
       <c r="P45" t="n">
-        <v>2612.058206212971</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q45" t="n">
         <v>2670.157851783212</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>67.20229659631352</v>
+        <v>858.3459201835426</v>
       </c>
       <c r="C46" t="n">
-        <v>67.20229659631352</v>
+        <v>689.4097372556357</v>
       </c>
       <c r="D46" t="n">
-        <v>67.20229659631352</v>
+        <v>539.2930978433</v>
       </c>
       <c r="E46" t="n">
-        <v>67.20229659631352</v>
+        <v>391.3800042609068</v>
       </c>
       <c r="F46" t="n">
-        <v>67.20229659631352</v>
+        <v>391.3800042609068</v>
       </c>
       <c r="G46" t="n">
-        <v>67.20229659631352</v>
+        <v>222.6400855875663</v>
       </c>
       <c r="H46" t="n">
         <v>67.20229659631352</v>
@@ -7836,22 +7836,22 @@
         <v>954.56199835287</v>
       </c>
       <c r="T46" t="n">
-        <v>900.4633898252298</v>
+        <v>954.56199835287</v>
       </c>
       <c r="U46" t="n">
-        <v>611.303954839161</v>
+        <v>954.56199835287</v>
       </c>
       <c r="V46" t="n">
-        <v>356.6194666332741</v>
+        <v>954.56199835287</v>
       </c>
       <c r="W46" t="n">
-        <v>67.20229659631352</v>
+        <v>954.56199835287</v>
       </c>
       <c r="X46" t="n">
-        <v>67.20229659631352</v>
+        <v>954.56199835287</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.20229659631352</v>
+        <v>954.56199835287</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,10 +9017,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9254,10 +9254,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9497,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9725,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>416.4180892914355</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>160.790313277285</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>21.07971842713414</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>311.4067723781607</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>264.3759445862468</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>21.07971842713417</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10199,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>311.4067723781607</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>269.175794181373</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10430,7 +10430,7 @@
         <v>21.07971842713414</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,13 +10439,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>160.7903132772849</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>264.3759445862468</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>21.07971842713414</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>264.3759445862468</v>
+        <v>269.1757941813729</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>21.07971842713414</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>311.4067723781607</v>
+        <v>416.4180892914355</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>21.07971842713414</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,16 +11150,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>264.3759445862468</v>
+        <v>269.1757941813729</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>21.07971842713417</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>269.175794181373</v>
       </c>
       <c r="Q45" t="n">
-        <v>55.77899636401023</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22552,22 +22552,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>229.2032893797634</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>131.0703856053965</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>315.6143651044186</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22834,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22941,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22956,16 +22956,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>151.6584166563415</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23026,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>39.38662024302153</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23187,22 +23187,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>3.806844538051706</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>325.8271389575908</v>
       </c>
       <c r="E11" t="n">
-        <v>293.4296579172241</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23472,16 +23472,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>157.4983735401874</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053966</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23500,13 +23500,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>266.4249318892685</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>219.7041506268415</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -23706,16 +23706,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>130.3958356744437</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>135.7278480073531</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>230.012830866397</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>25.02434874544826</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>56.93405031343801</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>177.7223876424002</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
@@ -24028,10 +24028,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>123.7805811116555</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>123.2544177285349</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24174,13 +24174,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>190.3685334339628</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>346.9335637293077</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>161.3455364069306</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>65.24341893944091</v>
       </c>
     </row>
     <row r="24">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>63.6615885962</v>
       </c>
       <c r="G25" t="n">
         <v>167.0525194866071</v>
@@ -24417,19 +24417,19 @@
         <v>207.661801906612</v>
       </c>
       <c r="T25" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>172.1520329466732</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>313.6070637911049</v>
+        <v>43.38894728174319</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I26" t="n">
         <v>129.8188433654458</v>
@@ -24496,10 +24496,10 @@
         <v>161.3455364069306</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>70.0464981098195</v>
       </c>
       <c r="G28" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>127.2284271446648</v>
@@ -24648,7 +24648,7 @@
         <v>7.578826164188811</v>
       </c>
       <c r="R28" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>207.661801906612</v>
@@ -24657,19 +24657,19 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>165.0270309097308</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>73.22053631308702</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I29" t="n">
         <v>129.8188433654458</v>
@@ -24742,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>168.3824170659758</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>98.05338010074985</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.0525194866071</v>
@@ -24861,7 +24861,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J31" t="n">
-        <v>27.01006717676063</v>
+        <v>27.01006717676064</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.578826164188811</v>
+        <v>7.578826164188825</v>
       </c>
       <c r="R31" t="n">
         <v>135.0968229573668</v>
@@ -24894,19 +24894,19 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>104.4688456625598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>131.1729335691951</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H32" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>24.69019745990852</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,7 +25122,7 @@
         <v>7.578826164188811</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S34" t="n">
         <v>207.661801906612</v>
@@ -25131,19 +25131,19 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U34" t="n">
-        <v>193.4328357124438</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1520329466732</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>83.37504497039049</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U35" t="n">
-        <v>220.7385958664946</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25365,22 +25365,22 @@
         <v>207.661801906612</v>
       </c>
       <c r="T37" t="n">
-        <v>170.3781838970968</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>271.7156667611877</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>149.9333932477052</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>318.0487214609057</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>161.3455364069306</v>
       </c>
       <c r="T38" t="n">
-        <v>213.9375272825098</v>
+        <v>33.07897563107215</v>
       </c>
       <c r="U38" t="n">
         <v>251.1782820837292</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>114.8683728860516</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>153.8834111013403</v>
@@ -25602,22 +25602,22 @@
         <v>207.661801906612</v>
       </c>
       <c r="T40" t="n">
-        <v>170.3781838970968</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H41" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T41" t="n">
         <v>213.9375272825098</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>186.2854598704037</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>9.820982719678</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>153.8834111013403</v>
@@ -25842,7 +25842,7 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>172.1520329466732</v>
+        <v>199.3706744436413</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>70.31973043229169</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>124.5368938647486</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I44" t="n">
         <v>129.8188433654458</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>18.44902381826981</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T44" t="n">
         <v>213.9375272825098</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>84.57806279430321</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>127.2284271446648</v>
@@ -26076,16 +26076,16 @@
         <v>207.661801906612</v>
       </c>
       <c r="T46" t="n">
-        <v>170.378183897097</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>994108.0333724422</v>
+        <v>702824.1735731203</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>994108.0333724422</v>
+        <v>702824.1735731201</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>994108.0333724422</v>
+        <v>702824.1735731203</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>702824.1735731201</v>
+        <v>702824.1735731203</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>779393.5652663441</v>
+        <v>779393.565266344</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>779393.565266344</v>
+        <v>779393.5652663441</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>779393.5652663441</v>
+        <v>779393.5652663439</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>779393.5652663441</v>
+        <v>779393.565266344</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>779393.5652663439</v>
+        <v>779393.5652663441</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>779393.565266344</v>
+        <v>779393.5652663442</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>779393.565266344</v>
+        <v>779393.5652663441</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="E2" t="n">
         <v>318067.8710173334</v>
@@ -26328,34 +26328,34 @@
         <v>318067.8710173334</v>
       </c>
       <c r="G2" t="n">
+        <v>318067.8710173334</v>
+      </c>
+      <c r="H2" t="n">
         <v>318067.8710173335</v>
       </c>
-      <c r="H2" t="n">
-        <v>318067.8710173334</v>
-      </c>
       <c r="I2" t="n">
+        <v>353411.9933975565</v>
+      </c>
+      <c r="J2" t="n">
         <v>353411.9933975567</v>
       </c>
-      <c r="J2" t="n">
-        <v>353411.9933975568</v>
-      </c>
       <c r="K2" t="n">
-        <v>353411.9933975568</v>
+        <v>353411.9933975565</v>
       </c>
       <c r="L2" t="n">
         <v>353411.9933975567</v>
       </c>
       <c r="M2" t="n">
-        <v>353411.9933975566</v>
+        <v>353411.9933975567</v>
       </c>
       <c r="N2" t="n">
-        <v>353411.9933975568</v>
+        <v>353411.9933975565</v>
       </c>
       <c r="O2" t="n">
         <v>353411.9933975567</v>
       </c>
       <c r="P2" t="n">
-        <v>353411.9933975567</v>
+        <v>353411.9933975565</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="E4" t="n">
         <v>9371.018034361485</v>
@@ -26432,7 +26432,7 @@
         <v>9371.018034361483</v>
       </c>
       <c r="G4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="H4" t="n">
         <v>9371.018034361485</v>
@@ -26447,7 +26447,7 @@
         <v>8909.485408078566</v>
       </c>
       <c r="L4" t="n">
-        <v>8909.485408078566</v>
+        <v>8909.485408078568</v>
       </c>
       <c r="M4" t="n">
         <v>8909.485408078566</v>
@@ -26459,7 +26459,7 @@
         <v>8909.485408078566</v>
       </c>
       <c r="P4" t="n">
-        <v>8909.485408078568</v>
+        <v>8909.485408078566</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26496,7 +26496,7 @@
         <v>62418.87211854676</v>
       </c>
       <c r="K5" t="n">
-        <v>62418.87211854676</v>
+        <v>62418.87211854675</v>
       </c>
       <c r="L5" t="n">
         <v>62418.87211854676</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369171.0325685189</v>
+        <v>-364736.9456695641</v>
       </c>
       <c r="C6" t="n">
-        <v>220796.8466460256</v>
+        <v>225230.9335449807</v>
       </c>
       <c r="D6" t="n">
-        <v>220796.8466460257</v>
+        <v>225230.9335449805</v>
       </c>
       <c r="E6" t="n">
-        <v>253396.9611737433</v>
+        <v>258858.5335449805</v>
       </c>
       <c r="F6" t="n">
-        <v>253396.9611737432</v>
+        <v>258858.5335449805</v>
       </c>
       <c r="G6" t="n">
-        <v>253396.9611737433</v>
+        <v>258858.5335449806</v>
       </c>
       <c r="H6" t="n">
-        <v>253396.9611737432</v>
+        <v>258858.5335449806</v>
       </c>
       <c r="I6" t="n">
-        <v>126149.1875390512</v>
+        <v>130164.8639947337</v>
       </c>
       <c r="J6" t="n">
-        <v>101198.5539498022</v>
+        <v>105214.2304054847</v>
       </c>
       <c r="K6" t="n">
-        <v>277621.7731423951</v>
+        <v>281637.4495980776</v>
       </c>
       <c r="L6" t="n">
-        <v>277621.773142395</v>
+        <v>281637.4495980777</v>
       </c>
       <c r="M6" t="n">
-        <v>277621.7731423949</v>
+        <v>281637.4495980777</v>
       </c>
       <c r="N6" t="n">
-        <v>277621.7731423951</v>
+        <v>281637.4495980775</v>
       </c>
       <c r="O6" t="n">
-        <v>277621.773142395</v>
+        <v>281637.4495980777</v>
       </c>
       <c r="P6" t="n">
-        <v>277621.773142395</v>
+        <v>281637.4495980776</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26752,7 +26752,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170867</v>
@@ -26764,7 +26764,7 @@
         <v>520.4186562086462</v>
       </c>
       <c r="K3" t="n">
-        <v>520.4186562086462</v>
+        <v>520.4186562086461</v>
       </c>
       <c r="L3" t="n">
         <v>520.4186562086462</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26816,7 +26816,7 @@
         <v>840.028707453919</v>
       </c>
       <c r="K4" t="n">
-        <v>840.028707453919</v>
+        <v>840.0287074539189</v>
       </c>
       <c r="L4" t="n">
         <v>840.028707453919</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>165.7414346993634</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>291.5750132227403</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.3731647155137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>26.84712108657618</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141.9938968421883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,19 +27785,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>192.820806079989</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,7 +31047,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31056,34 +31056,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,40 +31120,40 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
@@ -31162,7 +31162,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,22 +32408,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -33174,34 +33174,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.09213530134129</v>
+        <v>2.092135301341289</v>
       </c>
       <c r="H29" t="n">
-        <v>21.42608065486149</v>
+        <v>21.42608065486148</v>
       </c>
       <c r="I29" t="n">
-        <v>80.65704620496015</v>
+        <v>80.65704620496014</v>
       </c>
       <c r="J29" t="n">
-        <v>177.5673685322155</v>
+        <v>177.5673685322154</v>
       </c>
       <c r="K29" t="n">
-        <v>266.1274558379923</v>
+        <v>266.1274558379922</v>
       </c>
       <c r="L29" t="n">
-        <v>330.1546415664159</v>
+        <v>330.1546415664158</v>
       </c>
       <c r="M29" t="n">
-        <v>367.360652731644</v>
+        <v>367.3606527316439</v>
       </c>
       <c r="N29" t="n">
-        <v>373.30493215658</v>
+        <v>373.3049321565799</v>
       </c>
       <c r="O29" t="n">
-        <v>352.5012617538675</v>
+        <v>352.5012617538674</v>
       </c>
       <c r="P29" t="n">
-        <v>300.8516715020044</v>
+        <v>300.8516715020043</v>
       </c>
       <c r="Q29" t="n">
         <v>225.9270760227193</v>
@@ -33210,10 +33210,10 @@
         <v>131.4200941228799</v>
       </c>
       <c r="S29" t="n">
-        <v>47.67453317931469</v>
+        <v>47.67453317931468</v>
       </c>
       <c r="T29" t="n">
-        <v>9.158322281621501</v>
+        <v>9.158322281621498</v>
       </c>
       <c r="U29" t="n">
         <v>0.1673708241073031</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.119391071845013</v>
+        <v>1.119391071845012</v>
       </c>
       <c r="H30" t="n">
         <v>10.81096114123999</v>
@@ -33262,7 +33262,7 @@
         <v>38.54043821922522</v>
       </c>
       <c r="J30" t="n">
-        <v>105.7579082395326</v>
+        <v>105.7579082395325</v>
       </c>
       <c r="K30" t="n">
         <v>180.7571100531484</v>
@@ -33271,7 +33271,7 @@
         <v>243.0502412793305</v>
       </c>
       <c r="M30" t="n">
-        <v>283.6281676337122</v>
+        <v>283.6281676337121</v>
       </c>
       <c r="N30" t="n">
         <v>291.1349612690237</v>
@@ -33286,16 +33286,16 @@
         <v>142.889288399023</v>
       </c>
       <c r="R30" t="n">
-        <v>69.50043865367546</v>
+        <v>69.50043865367545</v>
       </c>
       <c r="S30" t="n">
         <v>20.79219819852467</v>
       </c>
       <c r="T30" t="n">
-        <v>4.511931557129676</v>
+        <v>4.511931557129675</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0736441494634877</v>
+        <v>0.07364414946348768</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.938459871851657</v>
+        <v>0.9384598718516568</v>
       </c>
       <c r="H31" t="n">
-        <v>8.343761406099285</v>
+        <v>8.343761406099281</v>
       </c>
       <c r="I31" t="n">
         <v>28.22204778259347</v>
       </c>
       <c r="J31" t="n">
-        <v>66.34911293991215</v>
+        <v>66.34911293991213</v>
       </c>
       <c r="K31" t="n">
         <v>109.0319742024016</v>
@@ -33350,7 +33350,7 @@
         <v>139.5233885842</v>
       </c>
       <c r="M31" t="n">
-        <v>147.1078506394375</v>
+        <v>147.1078506394374</v>
       </c>
       <c r="N31" t="n">
         <v>143.609954753445</v>
@@ -33362,7 +33362,7 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.58321708750557</v>
+        <v>78.58321708750556</v>
       </c>
       <c r="R31" t="n">
         <v>42.19656841980267</v>
@@ -33371,10 +33371,10 @@
         <v>16.35479613036023</v>
       </c>
       <c r="T31" t="n">
-        <v>4.009783088820715</v>
+        <v>4.009783088820714</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05118872028281771</v>
+        <v>0.0511887202828177</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34704,22 +34704,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>214.4070918624592</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,7 +35500,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,10 +35737,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735647</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,13 +35974,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338903</v>
@@ -36217,7 +36217,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36445,7 +36445,7 @@
         <v>475.3362068029155</v>
       </c>
       <c r="M24" t="n">
-        <v>607.1991974616938</v>
+        <v>557.9122230031294</v>
       </c>
       <c r="N24" t="n">
         <v>159.7932491856904</v>
@@ -36457,7 +36457,7 @@
         <v>398.242959848362</v>
       </c>
       <c r="Q24" t="n">
-        <v>163.6978275902865</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>307.380908091368</v>
+        <v>42.91567107878939</v>
       </c>
       <c r="L27" t="n">
         <v>475.3362068029155</v>
       </c>
       <c r="M27" t="n">
-        <v>452.9009060898546</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N27" t="n">
-        <v>159.7932491856904</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O27" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P27" t="n">
-        <v>398.242959848362</v>
+        <v>344.1561357946716</v>
       </c>
       <c r="Q27" t="n">
-        <v>212.9848020488506</v>
+        <v>2.907514313001514</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>165.6180791776029</v>
       </c>
       <c r="K29" t="n">
-        <v>370.1830173641765</v>
+        <v>370.1830173641764</v>
       </c>
       <c r="L29" t="n">
-        <v>512.0494411468791</v>
+        <v>512.049441146879</v>
       </c>
       <c r="M29" t="n">
-        <v>586.5279529972038</v>
+        <v>586.5279529972037</v>
       </c>
       <c r="N29" t="n">
         <v>581.2387929719732</v>
       </c>
       <c r="O29" t="n">
-        <v>503.2032315949261</v>
+        <v>503.203231594926</v>
       </c>
       <c r="P29" t="n">
-        <v>391.4173839182175</v>
+        <v>391.4173839182174</v>
       </c>
       <c r="Q29" t="n">
         <v>215.9363768081745</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>307.380908091368</v>
+        <v>307.3809080913679</v>
       </c>
       <c r="L30" t="n">
         <v>475.3362068029155</v>
       </c>
       <c r="M30" t="n">
-        <v>452.9009060898546</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N30" t="n">
         <v>159.7932491856904</v>
       </c>
       <c r="O30" t="n">
-        <v>517.5976865620062</v>
+        <v>517.5976865620061</v>
       </c>
       <c r="P30" t="n">
-        <v>398.242959848362</v>
+        <v>348.9559853897978</v>
       </c>
       <c r="Q30" t="n">
         <v>212.9848020488506</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>86.76248237651873</v>
+        <v>86.7624823765187</v>
       </c>
       <c r="L31" t="n">
         <v>167.1134138445161</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>42.91567107878939</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L33" t="n">
         <v>475.3362068029155</v>
@@ -37159,13 +37159,13 @@
         <v>607.1991974616938</v>
       </c>
       <c r="N33" t="n">
-        <v>639.135623529244</v>
+        <v>320.5835624629753</v>
       </c>
       <c r="O33" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P33" t="n">
-        <v>344.1561357946716</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q33" t="n">
         <v>2.907514313001514</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>42.91567107878939</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L36" t="n">
         <v>475.3362068029155</v>
@@ -37396,16 +37396,16 @@
         <v>607.1991974616938</v>
       </c>
       <c r="N36" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O36" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P36" t="n">
-        <v>344.1561357946716</v>
+        <v>348.9559853897978</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.907514313001514</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>307.380908091368</v>
@@ -37630,7 +37630,7 @@
         <v>475.3362068029155</v>
       </c>
       <c r="M39" t="n">
-        <v>452.9009060898546</v>
+        <v>557.9122230031294</v>
       </c>
       <c r="N39" t="n">
         <v>159.7932491856904</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>42.91567107878939</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L42" t="n">
         <v>475.3362068029155</v>
@@ -37870,16 +37870,16 @@
         <v>607.1991974616938</v>
       </c>
       <c r="N42" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O42" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P42" t="n">
-        <v>344.1561357946716</v>
+        <v>348.9559853897978</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.907514313001514</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>307.3809080913679</v>
@@ -38113,10 +38113,10 @@
         <v>517.5976865620061</v>
       </c>
       <c r="P45" t="n">
-        <v>398.242959848362</v>
+        <v>348.9559853897978</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.68651067701171</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
